--- a/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/main_pages.xlsx
+++ b/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/main_pages.xlsx
@@ -1139,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1156,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
